--- a/locais.xlsx
+++ b/locais.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33613A4-FFD2-4517-B852-78437BB9DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>categoria</t>
   </si>
@@ -49,132 +55,30 @@
     <t>Atrações</t>
   </si>
   <si>
-    <t>Passeios</t>
-  </si>
-  <si>
-    <t>Natureza</t>
-  </si>
-  <si>
-    <t>Supermercados</t>
-  </si>
-  <si>
-    <t>Museus</t>
-  </si>
-  <si>
-    <t>Cafés</t>
-  </si>
-  <si>
     <t>Castelo de Edimburgo</t>
   </si>
   <si>
     <t>Royal Mile</t>
   </si>
   <si>
-    <t>Arthur's Seat</t>
-  </si>
-  <si>
-    <t>Tesco Express</t>
-  </si>
-  <si>
     <t>National Museum of Scotland</t>
   </si>
   <si>
     <t>Scott Monument</t>
   </si>
   <si>
-    <t>The Milkman</t>
-  </si>
-  <si>
-    <t>Elephant House Café</t>
-  </si>
-  <si>
     <t>Calton Hill</t>
   </si>
   <si>
-    <t>Camera Obscura</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/190/190633.png</t>
-  </si>
-  <si>
     <t>https://cdn-icons-png.flaticon.com/512/854/854878.png</t>
   </si>
   <si>
-    <t>https://cdn-icons-png.flaticon.com/512/427/427735.png</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/3075/3075977.png</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/2995/2995101.png</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/684/684908.png</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/561/561169.png</t>
-  </si>
-  <si>
     <t>Castlehill, Edinburgh EH1 2NG</t>
   </si>
   <si>
-    <t>Royal Mile, Edinburgh</t>
-  </si>
-  <si>
-    <t>Queen's Dr, Edinburgh</t>
-  </si>
-  <si>
-    <t>Princes St, Edinburgh</t>
-  </si>
-  <si>
-    <t>Chambers St, Edinburgh</t>
-  </si>
-  <si>
-    <t>E Princes St Gardens, Edinburgh</t>
-  </si>
-  <si>
-    <t>Toddle In, 7 Cockburn St</t>
-  </si>
-  <si>
-    <t>21 George IV Bridge, Edinburgh</t>
-  </si>
-  <si>
-    <t>Calton Hill, Edinburgh</t>
-  </si>
-  <si>
-    <t>Castlehill, The Royal Mile</t>
-  </si>
-  <si>
     <t>Principal ponto turístico da cidade.</t>
   </si>
   <si>
-    <t>A rua histórica mais famosa.</t>
-  </si>
-  <si>
-    <t>Subida com vista panorâmica da cidade.</t>
-  </si>
-  <si>
-    <t>Supermercado de conveniência.</t>
-  </si>
-  <si>
-    <t>Museu nacional com coleções históricas.</t>
-  </si>
-  <si>
-    <t>Monumento icônico com mirante.</t>
-  </si>
-  <si>
-    <t>Café artesanal aconchegante.</t>
-  </si>
-  <si>
-    <t>Famoso por JK Rowling.</t>
-  </si>
-  <si>
-    <t>Vistas lindas e monumentos.</t>
-  </si>
-  <si>
-    <t>Ilusões e experiências interativas.</t>
-  </si>
-  <si>
     <t>dia1</t>
   </si>
   <si>
@@ -187,38 +91,308 @@
     <t>Veja o Menu para outras atrações</t>
   </si>
   <si>
-    <t>Abrir Menu para opções de pubs</t>
-  </si>
-  <si>
-    <t>Dica: ver o pôr do sol (Menu)</t>
-  </si>
-  <si>
-    <t>Menu: toque para abrir o menu da página</t>
-  </si>
-  <si>
-    <t>Ver Menu para exposições temporárias</t>
-  </si>
-  <si>
-    <t>Menu com horários e ingressos</t>
-  </si>
-  <si>
-    <t>Sugestões no Menu</t>
-  </si>
-  <si>
-    <t>Clique em Menu para ver o roteiro</t>
-  </si>
-  <si>
-    <t>Veja o Menu para pontos de foto</t>
-  </si>
-  <si>
-    <t>Menu com ingressos e combos</t>
+    <t>Victoria Street</t>
+  </si>
+  <si>
+    <t>Victoria St, Edinburgh EH1 2HE</t>
+  </si>
+  <si>
+    <t>Rua colorida que inspirou o Beco Diagonal.</t>
+  </si>
+  <si>
+    <t>Ótima para fotos e lojinhas temáticas.</t>
+  </si>
+  <si>
+    <t>Elephant House</t>
+  </si>
+  <si>
+    <t>21 George IV Bridge, Edinburgh EH1 1EN</t>
+  </si>
+  <si>
+    <t>Cafeteria onde J.K. Rowling escreveu parte de Harry Potter.</t>
+  </si>
+  <si>
+    <t>Pare para um café com história.</t>
+  </si>
+  <si>
+    <t>Greyfriars Kirkyard</t>
+  </si>
+  <si>
+    <t>Candlemaker Row, Edinburgh EH1 2QQ</t>
+  </si>
+  <si>
+    <t>Cemitério com nomes que inspiraram personagens de Harry Potter.</t>
+  </si>
+  <si>
+    <t>Procure as lápides famosas.</t>
+  </si>
+  <si>
+    <t>Royal Mile, Edinburgh EH1</t>
+  </si>
+  <si>
+    <t>Rua histórica que liga o Castelo ao Palácio de Holyrood.</t>
+  </si>
+  <si>
+    <t>Cheia de pubs e lojas tradicionais.</t>
+  </si>
+  <si>
+    <t>Palácio de Holyroodhouse</t>
+  </si>
+  <si>
+    <t>Canongate, Edinburgh EH8 8DX</t>
+  </si>
+  <si>
+    <t>Residência oficial da monarquia na Escócia.</t>
+  </si>
+  <si>
+    <t>Inspirou cenários de época em Outlander.</t>
+  </si>
+  <si>
+    <t>Calton Hill, Edinburgh EH7 5AA</t>
+  </si>
+  <si>
+    <t>Miradouro com monumentos clássicos e vista panorâmica.</t>
+  </si>
+  <si>
+    <t>Lugar ideal para fotos ao pôr do sol.</t>
+  </si>
+  <si>
+    <t>Canongate Kirk</t>
+  </si>
+  <si>
+    <t>153 Canongate, Edinburgh EH8 8BN</t>
+  </si>
+  <si>
+    <t>Igreja histórica associada à realeza.</t>
+  </si>
+  <si>
+    <t>Utilizada em episódios de Outlander.</t>
+  </si>
+  <si>
+    <t>Surgeons' Hall Museums</t>
+  </si>
+  <si>
+    <t>Nicolson St, Edinburgh EH8 9DW</t>
+  </si>
+  <si>
+    <t>Museus de medicina com atmosfera “dark academia”.</t>
+  </si>
+  <si>
+    <t>Curiosidades médicas e históricas.</t>
+  </si>
+  <si>
+    <t>Dean Village</t>
+  </si>
+  <si>
+    <t>Dean Path, Edinburgh EH4 3AY</t>
+  </si>
+  <si>
+    <t>Vila pitoresca às margens do rio Water of Leith.</t>
+  </si>
+  <si>
+    <t>Parece cenário de época.</t>
+  </si>
+  <si>
+    <t>Universidade de Edimburgo (Old College)</t>
+  </si>
+  <si>
+    <t>South Bridge, Edinburgh EH8 9YL</t>
+  </si>
+  <si>
+    <t>Prédio clássico que lembra Hogwarts.</t>
+  </si>
+  <si>
+    <t>Explore os quadrangles internos.</t>
+  </si>
+  <si>
+    <t>George Heriot’s School</t>
+  </si>
+  <si>
+    <t>Lauriston Place, Edinburgh EH3 9EQ</t>
+  </si>
+  <si>
+    <t>Escola que inspirou Hogwarts.</t>
+  </si>
+  <si>
+    <t>Visível externamente.</t>
+  </si>
+  <si>
+    <t>Chambers St, Edinburgh EH1 1JF</t>
+  </si>
+  <si>
+    <t>Museu gratuito com história, ciência e a ovelha Dolly.</t>
+  </si>
+  <si>
+    <t>Imperdível e interativo.</t>
+  </si>
+  <si>
+    <t>Princes Street Gardens</t>
+  </si>
+  <si>
+    <t>Princes St, Edinburgh EH2 2HG</t>
+  </si>
+  <si>
+    <t>Parque central com vista para o castelo.</t>
+  </si>
+  <si>
+    <t>Bom para relaxar.</t>
+  </si>
+  <si>
+    <t>East Princes St Gardens, Edinburgh EH2 2EJ</t>
+  </si>
+  <si>
+    <t>Monumento gótico dedicado a Sir Walter Scott.</t>
+  </si>
+  <si>
+    <t>Suba para vistas incríveis.</t>
+  </si>
+  <si>
+    <t>Royal Botanic Garden Edinburgh</t>
+  </si>
+  <si>
+    <t>Arboretum Pl, Edinburgh EH3 5NZ</t>
+  </si>
+  <si>
+    <t>Jardim botânico histórico.</t>
+  </si>
+  <si>
+    <t>Perfeito para encerrar o roteiro.</t>
+  </si>
+  <si>
+    <t>St Giles’ Cathedral</t>
+  </si>
+  <si>
+    <t>High St, Edinburgh EH1 1RE</t>
+  </si>
+  <si>
+    <t>Catedral medieval no coração da Royal Mile.</t>
+  </si>
+  <si>
+    <t>Arquitetura gótica impressionante.</t>
+  </si>
+  <si>
+    <t>Camera Obscura &amp; World of Illusions</t>
+  </si>
+  <si>
+    <t>Castlehill, Edinburgh EH1 2ND</t>
+  </si>
+  <si>
+    <t>Atração interativa com miradouro no topo.</t>
+  </si>
+  <si>
+    <t>Divertido e ao lado do castelo.</t>
+  </si>
+  <si>
+    <t>Grassmarket Square</t>
+  </si>
+  <si>
+    <t>Grassmarket, Edinburgh EH1 2JR</t>
+  </si>
+  <si>
+    <t>Praça histórica com pubs tradicionais.</t>
+  </si>
+  <si>
+    <t>Boa opção para jantar.</t>
+  </si>
+  <si>
+    <t>Scottish Parliament</t>
+  </si>
+  <si>
+    <t>Horse Wynd, Edinburgh EH99 1SP</t>
+  </si>
+  <si>
+    <t>Prédio moderno em frente ao Holyroodhouse.</t>
+  </si>
+  <si>
+    <t>Contraste entre antigo e novo.</t>
+  </si>
+  <si>
+    <t>Dynamic Earth</t>
+  </si>
+  <si>
+    <t>Holyrood Rd, Edinburgh EH8 8AS</t>
+  </si>
+  <si>
+    <t>Museu de ciências da Terra.</t>
+  </si>
+  <si>
+    <t>Boa opção se estiver com crianças.</t>
+  </si>
+  <si>
+    <t>Water of Leith Walkway</t>
+  </si>
+  <si>
+    <t>Caminho ao longo do rio Water of Leith</t>
+  </si>
+  <si>
+    <t>Caminhada cênica ligando Dean Village a Stockbridge.</t>
+  </si>
+  <si>
+    <t>Trilha leve e charmosa.</t>
+  </si>
+  <si>
+    <t>Stockbridge Market</t>
+  </si>
+  <si>
+    <t>Saunders St, Edinburgh EH3 6TQ</t>
+  </si>
+  <si>
+    <t>Feira gastronômica tradicional.</t>
+  </si>
+  <si>
+    <t>Ideal para almoço de domingo.</t>
+  </si>
+  <si>
+    <t>Surgeons' Hall Library</t>
+  </si>
+  <si>
+    <t>Antiga biblioteca médica.</t>
+  </si>
+  <si>
+    <t>Atmosfera acadêmica e histórica.</t>
+  </si>
+  <si>
+    <t>Meadows Park</t>
+  </si>
+  <si>
+    <t>Melville Dr, Edinburgh EH9 1ND</t>
+  </si>
+  <si>
+    <t>Grande parque popular entre estudantes.</t>
+  </si>
+  <si>
+    <t>Ótimo para relaxar.</t>
+  </si>
+  <si>
+    <t>Scottish National Gallery</t>
+  </si>
+  <si>
+    <t>The Mound, Edinburgh EH2 2EL</t>
+  </si>
+  <si>
+    <t>Museu com arte europeia clássica.</t>
+  </si>
+  <si>
+    <t>Entrada gratuita.</t>
+  </si>
+  <si>
+    <t>Charlotte Square</t>
+  </si>
+  <si>
+    <t>Charlotte Square, Edinburgh EH2 4DR</t>
+  </si>
+  <si>
+    <t>Praça georgiana elegante.</t>
+  </si>
+  <si>
+    <t>Próxima a Princes Street.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,18 +463,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +520,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -372,6 +554,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -406,9 +589,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,14 +765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,338 +810,876 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>55.9486</v>
+        <v>55.949199999999998</v>
       </c>
       <c r="D2">
-        <v>-3.1999</v>
+        <v>-3.19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>55.948799999999999</v>
+      </c>
+      <c r="D3">
+        <v>-3.1956000000000002</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>55.9467</v>
+      </c>
+      <c r="D4">
+        <v>-3.1964000000000001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5">
+        <v>55.948599999999999</v>
+      </c>
+      <c r="D5">
+        <v>-3.1999</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>55.9498</v>
-      </c>
-      <c r="D3">
-        <v>-3.19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>55.9444</v>
-      </c>
-      <c r="D4">
-        <v>-3.1618</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>55.9516</v>
-      </c>
-      <c r="D5">
-        <v>-3.1921</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>55.9469</v>
+        <v>55.947499999999998</v>
       </c>
       <c r="D6">
-        <v>-3.1904</v>
+        <v>-3.1943000000000001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>55.9524</v>
+        <v>55.947899999999997</v>
       </c>
       <c r="D7">
-        <v>-3.1965</v>
+        <v>-3.1890000000000001</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8">
-        <v>55.9507</v>
+        <v>55.947099999999999</v>
       </c>
       <c r="D8">
-        <v>-3.1896</v>
+        <v>-3.1905000000000001</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>55.9475</v>
+        <v>55.95</v>
       </c>
       <c r="D9">
         <v>-3.19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>55.955</v>
+        <v>55.951999999999998</v>
       </c>
       <c r="D10">
-        <v>-3.1827</v>
+        <v>-3.1718000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>55.9489</v>
+        <v>55.954999999999998</v>
       </c>
       <c r="D11">
-        <v>-3.1951</v>
+        <v>-3.1825999999999999</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>55.950899999999997</v>
+      </c>
+      <c r="D12">
+        <v>-3.1791</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>55.947800000000001</v>
+      </c>
+      <c r="D13">
+        <v>-3.1859999999999999</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>55.951500000000003</v>
+      </c>
+      <c r="D14">
+        <v>-3.2181999999999999</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>55.952399999999997</v>
+      </c>
+      <c r="D15">
+        <v>-3.1747000000000001</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>55.950699999999998</v>
+      </c>
+      <c r="D16">
+        <v>-3.1745000000000001</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>55.95</v>
+      </c>
+      <c r="D17">
+        <v>-3.21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>55.959200000000003</v>
+      </c>
+      <c r="D18">
+        <v>-3.2046000000000001</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>55.945599999999999</v>
+      </c>
+      <c r="D19">
+        <v>-3.1869999999999998</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>55.9482</v>
+      </c>
+      <c r="D20">
+        <v>-3.1970000000000001</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>55.946899999999999</v>
+      </c>
+      <c r="D21">
+        <v>-3.1905000000000001</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="J11">
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>55.950400000000002</v>
+      </c>
+      <c r="D22">
+        <v>-3.2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>55.952399999999997</v>
+      </c>
+      <c r="D23">
+        <v>-3.1932999999999998</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>55.965200000000003</v>
+      </c>
+      <c r="D24">
+        <v>-3.2097000000000002</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>55.947499999999998</v>
+      </c>
+      <c r="D25">
+        <v>-3.1863000000000001</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>55.941800000000001</v>
+      </c>
+      <c r="D26">
+        <v>-3.1903999999999999</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27">
+        <v>55.950699999999998</v>
+      </c>
+      <c r="D27">
+        <v>-3.1972</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>55.951999999999998</v>
+      </c>
+      <c r="D28">
+        <v>-3.2077</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E2:E9" r:id="rId1" display="https://cdn-icons-png.flaticon.com/512/854/854878.png" xr:uid="{FEB3070D-E88A-4F07-8E44-6C2385267BDC}"/>
+    <hyperlink ref="E10:E18" r:id="rId2" display="https://cdn-icons-png.flaticon.com/512/854/854878.png" xr:uid="{F31C9D95-56A1-4381-B61A-B0CC2E12BB79}"/>
+    <hyperlink ref="E19:E24" r:id="rId3" display="https://cdn-icons-png.flaticon.com/512/854/854878.png" xr:uid="{C45207B6-5639-4315-BBC1-3F7F1F92A785}"/>
+    <hyperlink ref="E25:E28" r:id="rId4" display="https://cdn-icons-png.flaticon.com/512/854/854878.png" xr:uid="{F4E18E8C-AC67-40BF-BE32-097AAF156483}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5ACAC-036F-499F-B0D2-30145994C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8726A7C-50FC-40D7-A5F0-281EF65ACC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>categoria</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>Sugar Daddy’s Bakery</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Universidade</t>
+  </si>
+  <si>
+    <t>Hampton by Hilton Edinburgh West End</t>
+  </si>
+  <si>
+    <t>hotel.png</t>
+  </si>
+  <si>
+    <t>166 Fountainbridge, Edinburgh EH3 9RX, Reino Unido</t>
+  </si>
+  <si>
+    <t>Edinburgh Napier University</t>
+  </si>
+  <si>
+    <t>universidade.png</t>
+  </si>
+  <si>
+    <t>219 Colinton Rd, Edinburgh EH14 1DJ, Reino Unido</t>
   </si>
 </sst>
 </file>
@@ -204,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -216,7 +240,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,201 +605,249 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7">
+        <v>55.942705482685902</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-3.2123460541600601</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7">
+        <v>55.9181219892914</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-3.2395464191391299</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="3">
         <v>55.950917663453701</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>-3.1873813757732701</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>55.944020787571397</v>
-      </c>
-      <c r="D3">
-        <v>-3.2193522678715398</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>55.945529259242001</v>
-      </c>
-      <c r="D4">
-        <v>-3.21733537907792</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>55.946771883489603</v>
+        <v>55.944020787571397</v>
       </c>
       <c r="D5">
-        <v>-3.2145869859731802</v>
+        <v>-3.2193522678715398</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>55.938395872572102</v>
+        <v>55.945529259242001</v>
       </c>
       <c r="D6">
-        <v>-3.1927817038050401</v>
+        <v>-3.21733537907792</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>55.946771883489603</v>
+      </c>
+      <c r="D7">
+        <v>-3.2145869859731802</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>55.938395872572102</v>
+      </c>
+      <c r="D8">
+        <v>-3.1927817038050401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>55.9555958493983</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>-3.19355348081488</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>55.951022089910303</v>
-      </c>
-      <c r="D8">
-        <v>-3.1957505659245098</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>55.9511182225379</v>
-      </c>
-      <c r="D9">
-        <v>-3.19851856449232</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>55.951022089910303</v>
+      </c>
+      <c r="D10">
+        <v>-3.1957505659245098</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>55.9511182225379</v>
+      </c>
+      <c r="D11">
+        <v>-3.19851856449232</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>55.9518426331081</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>-3.21807452614072</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
     </row>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8726A7C-50FC-40D7-A5F0-281EF65ACC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D07157-70A6-4B21-B772-3C50D26838F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>categoria</t>
   </si>
@@ -158,6 +158,36 @@
   </si>
   <si>
     <t>219 Colinton Rd, Edinburgh EH14 1DJ, Reino Unido</t>
+  </si>
+  <si>
+    <t>Supermercado</t>
+  </si>
+  <si>
+    <t>supermarket.png</t>
+  </si>
+  <si>
+    <t>Tesco Express</t>
+  </si>
+  <si>
+    <t>Horário: 06:00–23:00</t>
+  </si>
+  <si>
+    <t>Poundland</t>
+  </si>
+  <si>
+    <t>Horário: 08:00–20:00</t>
+  </si>
+  <si>
+    <t>Sainsbury's Local</t>
+  </si>
+  <si>
+    <t>Horário: 07:00–23:00</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>Horário: 07:00–22:00</t>
   </si>
 </sst>
 </file>
@@ -169,7 +199,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +218,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +887,208 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>55.943367940442798</v>
+      </c>
+      <c r="D13">
+        <v>-3.20957015359396</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>55.9436566678961</v>
+      </c>
+      <c r="D14">
+        <v>-3.2093410629952701</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>55.948082610613298</v>
+      </c>
+      <c r="D15">
+        <v>-3.1860243139898499</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>55.950615650317602</v>
+      </c>
+      <c r="D16">
+        <v>-3.1784637130764302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>55.957352691313702</v>
+      </c>
+      <c r="D17">
+        <v>-3.18693992108699</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>55.946519798700301</v>
+      </c>
+      <c r="D18">
+        <v>-3.2225433733526998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>55.945138507949402</v>
+      </c>
+      <c r="D19">
+        <v>3.2056257210258399</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>55.9463749104114</v>
+      </c>
+      <c r="D20">
+        <v>-3.2012609818517901</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>55.949017986035301</v>
+      </c>
+      <c r="D21">
+        <v>-3.1870979385102198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>55.9458654868656</v>
+      </c>
+      <c r="D22">
+        <v>-3.1844826429666102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D07157-70A6-4B21-B772-3C50D26838F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B7E66A-E0E4-43F7-A635-E857D0FCE95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>categoria</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Horário: 07:00–22:00</t>
+  </si>
+  <si>
+    <t>LEGO</t>
+  </si>
+  <si>
+    <t>lego.png</t>
+  </si>
+  <si>
+    <t>Horário: 10:00–20:00</t>
+  </si>
+  <si>
+    <t>The LEGO Edimburgh</t>
   </si>
 </sst>
 </file>
@@ -592,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1030,7 @@
         <v>55.945138507949402</v>
       </c>
       <c r="D19">
-        <v>3.2056257210258399</v>
+        <v>-3.2056257210258399</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -1085,6 +1097,26 @@
       </c>
       <c r="G22" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>51.458988661041197</v>
+      </c>
+      <c r="D23">
+        <v>-2.5842701752980801</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B7E66A-E0E4-43F7-A635-E857D0FCE95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F23F9-4767-4455-B90B-895C1B8BAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>categoria</t>
   </si>
@@ -200,6 +200,36 @@
   </si>
   <si>
     <t>The LEGO Edimburgh</t>
+  </si>
+  <si>
+    <t>Loudons New Waverley</t>
+  </si>
+  <si>
+    <t>2 Sibbald Walk, Edinburgh EH8 8FT, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 08:00–16:00</t>
+  </si>
+  <si>
+    <t>8 Roseneath St, Marchmont Cres, Edinburgh EH9 1JH, Reino Unido</t>
+  </si>
+  <si>
+    <t>Mamma's American Pizza</t>
+  </si>
+  <si>
+    <t>28 - 30 Grassmarket, Edinburgh EH1 2JU, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 09:00–22:00</t>
+  </si>
+  <si>
+    <t>Bertie's Proper Fish &amp; Chips</t>
+  </si>
+  <si>
+    <t>9 Victoria St, Edinburgh EH1 2HE, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 11:00–22:00</t>
   </si>
 </sst>
 </file>
@@ -604,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,202 +731,183 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
+      <c r="A4" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>55.950917663453701</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-3.1873813757732701</v>
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>55.943367940442798</v>
+      </c>
+      <c r="D4">
+        <v>-3.20957015359396</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
+      <c r="A5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>55.944020787571397</v>
+        <v>55.9436566678961</v>
       </c>
       <c r="D5">
-        <v>-3.2193522678715398</v>
+        <v>-3.2093410629952701</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>55.945529259242001</v>
+        <v>55.948082610613298</v>
       </c>
       <c r="D6">
-        <v>-3.21733537907792</v>
+        <v>-3.1860243139898499</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
+      <c r="A7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>55.946771883489603</v>
+        <v>55.950615650317602</v>
       </c>
       <c r="D7">
-        <v>-3.2145869859731802</v>
+        <v>-3.1784637130764302</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>55.938395872572102</v>
+        <v>55.957352691313702</v>
       </c>
       <c r="D8">
-        <v>-3.1927817038050401</v>
+        <v>-3.18693992108699</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
+      <c r="A9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>55.9555958493983</v>
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>55.946519798700301</v>
       </c>
       <c r="D9">
-        <v>-3.19355348081488</v>
+        <v>-3.2225433733526998</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
+      <c r="A10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>55.951022089910303</v>
+        <v>55.945138507949402</v>
       </c>
       <c r="D10">
-        <v>-3.1957505659245098</v>
+        <v>-3.2056257210258399</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
+      <c r="A11" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>55.9511182225379</v>
+        <v>55.9463749104114</v>
       </c>
       <c r="D11">
-        <v>-3.19851856449232</v>
+        <v>-3.2012609818517901</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>55.9518426331081</v>
+        <v>55.949017986035301</v>
       </c>
       <c r="D12">
-        <v>-3.21807452614072</v>
+        <v>-3.1870979385102198</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -904,219 +915,309 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>55.943367940442798</v>
+        <v>55.9458654868656</v>
       </c>
       <c r="D13">
-        <v>-3.20957015359396</v>
+        <v>-3.1844826429666102</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>55.9436566678961</v>
+        <v>51.458988661041197</v>
       </c>
       <c r="D14">
-        <v>-3.2093410629952701</v>
+        <v>-2.5842701752980801</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>46</v>
+      <c r="A15" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>55.948082610613298</v>
-      </c>
-      <c r="D15">
-        <v>-3.1860243139898499</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>55.950917663453701</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-3.1873813757732701</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>46</v>
+      <c r="A16" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>55.950615650317602</v>
+        <v>55.944020787571397</v>
       </c>
       <c r="D16">
-        <v>-3.1784637130764302</v>
+        <v>-3.2193522678715398</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>55.957352691313702</v>
+        <v>55.945529259242001</v>
       </c>
       <c r="D17">
-        <v>-3.18693992108699</v>
+        <v>-3.21733537907792</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
+      <c r="A18" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>55.946519798700301</v>
+        <v>55.946771883489603</v>
       </c>
       <c r="D18">
-        <v>-3.2225433733526998</v>
+        <v>-3.2145869859731802</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>55.945138507949402</v>
+        <v>55.938395872572102</v>
       </c>
       <c r="D19">
-        <v>-3.2056257210258399</v>
+        <v>-3.1927817038050401</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>46</v>
+      <c r="A20" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>55.9463749104114</v>
+        <v>55.951523787257202</v>
       </c>
       <c r="D20">
-        <v>-3.2012609818517901</v>
+        <v>-3.1820980214339198</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>46</v>
+      <c r="A21" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>55.949017986035301</v>
+        <v>55.947622529351598</v>
       </c>
       <c r="D21">
-        <v>-3.1870979385102198</v>
+        <v>-3.1968821331188302</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>46</v>
+      <c r="A22" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C22">
-        <v>55.9458654868656</v>
+        <v>55.948707895333399</v>
       </c>
       <c r="D22">
-        <v>-3.1844826429666102</v>
+        <v>-3.1936347347347902</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>56</v>
+      <c r="A23" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23">
-        <v>51.458988661041197</v>
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>55.9555958493983</v>
       </c>
       <c r="D23">
-        <v>-2.5842701752980801</v>
+        <v>-3.19355348081488</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>55.951022089910303</v>
+      </c>
+      <c r="D24">
+        <v>-3.1957505659245098</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>55.9511182225379</v>
+      </c>
+      <c r="D25">
+        <v>-3.19851856449232</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>55.9518426331081</v>
+      </c>
+      <c r="D26">
+        <v>-3.21807452614072</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F23F9-4767-4455-B90B-895C1B8BAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B0EA1-674C-48CE-885B-6F94F73E21D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>categoria</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Atrações</t>
   </si>
   <si>
+    <t>Royal Mile</t>
+  </si>
+  <si>
     <t>Dean Village</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>250 Morrison St, Edinburgh EH3 8DT, Reino Unido</t>
   </si>
   <si>
-    <t>Horário:quarta-feira 10:00–15:00</t>
-  </si>
-  <si>
     <t>Horário: 10:00–17:00</t>
   </si>
   <si>
@@ -230,15 +230,79 @@
   </si>
   <si>
     <t>Horário: 11:00–22:00</t>
+  </si>
+  <si>
+    <t>Horário: [quarta-feira] 10:00–15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vennel Viewpoint Edinburgh Castle </t>
+  </si>
+  <si>
+    <t>Rua bonita com vista para o castelo</t>
+  </si>
+  <si>
+    <t>11, 1 Vennel, Edinburgh EH1 2HU, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassmarket </t>
+  </si>
+  <si>
+    <t>Rua com pubs, shops e vista do castelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greyfriars Kirkyard </t>
+  </si>
+  <si>
+    <t>Igreja com loja e museu que conta a história do fiel e famoso cão Greyfriars Bobby.</t>
+  </si>
+  <si>
+    <t>Greyfriars Place, Edinburgh EH1 2QQ, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elephant House </t>
+  </si>
+  <si>
+    <t>21 Victoria St, Edinburgh EH1 1EN, Reino Unido</t>
+  </si>
+  <si>
+    <t>Café onde a JK Rowling escreveu parte de HP</t>
+  </si>
+  <si>
+    <t>Edinburgh EH1 1QS, Reino Unido</t>
+  </si>
+  <si>
+    <t>rua principal que liga o Castelo de Edimburgo ao Palácio de Holyrood. Muitas lojinhas de tartan, pubs e gaitas de fole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Street  </t>
+  </si>
+  <si>
+    <t>Diagon Alley – Harry Potter shops</t>
+  </si>
+  <si>
+    <t>Edimburgo, Reino Unido</t>
+  </si>
+  <si>
+    <t>The Writers' Museum</t>
+  </si>
+  <si>
+    <t>Manuscritos e itens pessoais de Burns, Scott e Stevenson, exibidos em uma casa do século 17.</t>
+  </si>
+  <si>
+    <t>Lawnmarket, Lady Stair's Cl, Edinburgh EH1 2PA, Reino Unido</t>
+  </si>
+  <si>
+    <t>harry-potter.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="169" formatCode="#,##0.000"/>
     <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -306,13 +370,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -634,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +710,7 @@
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="21.5546875" customWidth="1"/>
@@ -683,55 +749,55 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>55.942705482685902</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>-3.2123460541600601</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>55.9181219892914</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>-3.2395464191391299</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
@@ -751,7 +817,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -771,7 +837,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -791,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -811,7 +877,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
@@ -831,7 +897,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -851,7 +917,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -871,7 +937,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
@@ -891,7 +957,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
@@ -911,7 +977,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
@@ -931,7 +997,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
@@ -951,11 +1017,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
+      <c r="A15" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>55.950917663453701</v>
@@ -964,21 +1030,21 @@
         <v>-3.1873813757732701</v>
       </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>55.944020787571397</v>
@@ -987,21 +1053,21 @@
         <v>-3.2193522678715398</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C17">
         <v>55.945529259242001</v>
@@ -1010,21 +1076,21 @@
         <v>-3.21733537907792</v>
       </c>
       <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>55.946771883489603</v>
@@ -1033,18 +1099,18 @@
         <v>-3.2145869859731802</v>
       </c>
       <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1056,18 +1122,18 @@
         <v>-3.1927817038050401</v>
       </c>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -1079,7 +1145,7 @@
         <v>-3.1820980214339198</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -1089,8 +1155,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>14</v>
+      <c r="A21" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1102,7 +1168,7 @@
         <v>-3.1968821331188302</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -1112,8 +1178,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -1125,7 +1191,7 @@
         <v>-3.1936347347347902</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -1135,34 +1201,34 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
         <v>55.9555958493983</v>
       </c>
       <c r="D23">
         <v>-3.19355348081488</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>55.951022089910303</v>
@@ -1171,7 +1237,7 @@
         <v>-3.1957505659245098</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -1181,11 +1247,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>55.9511182225379</v>
@@ -1194,7 +1260,7 @@
         <v>-3.19851856449232</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -1204,11 +1270,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>55.9518426331081</v>
@@ -1217,7 +1283,165 @@
         <v>-3.21807452614072</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>55.9465510868135</v>
+      </c>
+      <c r="D27">
+        <v>-3.1972559933375502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>55.947472616518297</v>
+      </c>
+      <c r="D28">
+        <v>-3.1962242940448902</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>55.946817090147398</v>
+      </c>
+      <c r="D29">
+        <v>-3.1921809327139399</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30">
+        <v>55.947694876427001</v>
+      </c>
+      <c r="D30">
+        <v>-3.1918085515241401</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>55.948866252309202</v>
+      </c>
+      <c r="D31">
+        <v>-3.1931122734453501</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>55.949604663396798</v>
+      </c>
+      <c r="D32">
+        <v>-3.1917009894855899</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>55.949809433784303</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-3.1936380192635001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B0EA1-674C-48CE-885B-6F94F73E21D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD30DD-2845-4243-B589-E6821A0DB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
   <si>
     <t>categoria</t>
   </si>
@@ -293,6 +293,33 @@
   </si>
   <si>
     <t>harry-potter.png</t>
+  </si>
+  <si>
+    <t>Advocate's Close</t>
+  </si>
+  <si>
+    <t>WRX5+WF Edimburgo, Reino Unido</t>
+  </si>
+  <si>
+    <t>Advocates Close é um beco estreito e íngreme em Edimburgo, de origem medieval, reconstruído no início do século XXI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calton Hill </t>
+  </si>
+  <si>
+    <t>Colina proeminente com monumentos neoclássicos e vista panorâmica para o horizonte da cidade e o Castelo de Edimburgo.</t>
+  </si>
+  <si>
+    <t>Edimburgo EH7 5AA, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St James Quarter </t>
+  </si>
+  <si>
+    <t>Shopping contemporâneo com grandes marcas de varejo, diversos restaurantes, bares e cafés.</t>
+  </si>
+  <si>
+    <t>St James Cres, Edinburgh EH1 3AD, Reino Unido</t>
   </si>
 </sst>
 </file>
@@ -699,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,22 +1430,22 @@
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C32">
-        <v>55.949604663396798</v>
-      </c>
-      <c r="D32">
-        <v>-3.1917009894855899</v>
+        <v>55.949809433784303</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-3.1936380192635001</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1426,22 +1453,91 @@
         <v>10</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33">
-        <v>55.949809433784303</v>
-      </c>
-      <c r="D33" s="4">
-        <v>-3.1936380192635001</v>
+        <v>55.949785395700403</v>
+      </c>
+      <c r="D33">
+        <v>-3.1913097995194399</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>55.949604663396798</v>
+      </c>
+      <c r="D34">
+        <v>-3.1917009894855899</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>55.955621712536299</v>
+      </c>
+      <c r="D35">
+        <v>-3.1821399240250501</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>55.955367742394401</v>
+      </c>
+      <c r="D36">
+        <v>-3.1885290367581001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD30DD-2845-4243-B589-E6821A0DB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7978E30-55D0-4219-B982-7AEDC99B93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
   <si>
     <t>categoria</t>
   </si>
@@ -196,9 +196,6 @@
     <t>lego.png</t>
   </si>
   <si>
-    <t>Horário: 10:00–20:00</t>
-  </si>
-  <si>
     <t>The LEGO Edimburgh</t>
   </si>
   <si>
@@ -320,17 +317,186 @@
   </si>
   <si>
     <t>St James Cres, Edinburgh EH1 3AD, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 09:00–20:00</t>
+  </si>
+  <si>
+    <t>Horario: 12:00–22:00</t>
+  </si>
+  <si>
+    <t>St James Cres, Edinburgh EH1 3AE, Reino Unido</t>
+  </si>
+  <si>
+    <t>Ka Pao</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>Kochchi</t>
+  </si>
+  <si>
+    <t>61 York Pl, Edinburgh EH1 3JD, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 08:30–18:30 - A  Catedral Metropolitana de Nossa Senhora da Assunção, também conhecida como Catedral Metropolitana de Santa Maria, é uma igreja católica romana em Edimburgo, Escócia. É a sede do Arcebispo de Saint Andrews e Edimburgo e a igreja mãe do catolicismo escocês.</t>
+  </si>
+  <si>
+    <t>Palace of Holyrood</t>
+  </si>
+  <si>
+    <t>St. Mary's Catholic Cathedral</t>
+  </si>
+  <si>
+    <t>Horário: 09:30–18:00   - Residência oficial da monarquia na Escócia. Aparece em Outlander como inspiração em algumas referências históricas</t>
+  </si>
+  <si>
+    <t>Canongate, Edinburgh EH8 8DX, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canongate Kirk </t>
+  </si>
+  <si>
+    <t>153 Canongate, Edinburgh EH8 8BN, Reino Unido</t>
+  </si>
+  <si>
+    <t>Igreja associada à realeza e também usada em Outlander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade de Edimburgo </t>
+  </si>
+  <si>
+    <t>Old College, South Bridge, Edinburgh EH8 9YL, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 09:00–17:00</t>
+  </si>
+  <si>
+    <t>George Heriot's School</t>
+  </si>
+  <si>
+    <t>Escola que teria inspirado a ideia de Hogwarts. Pode ser vista por fora.</t>
+  </si>
+  <si>
+    <t>Lauriston Pl, Edinburgh EH3 9EQ, Reino Unido</t>
+  </si>
+  <si>
+    <t>Parque de interesse geológico/botânico, galardoado com o prémio Green Flag, com vários monumentos públicos e memoriais.</t>
+  </si>
+  <si>
+    <t>Monumento de Scott</t>
+  </si>
+  <si>
+    <t>Memorial vitoriano em forma de pináculo, em homenagem ao escritor Sir Walter Scott, com 282 degraus até ao topo.</t>
+  </si>
+  <si>
+    <t>E. Princes St Gardens, Edinburgh EH2 2EJ, Reino Unido</t>
+  </si>
+  <si>
+    <t>train.png</t>
+  </si>
+  <si>
+    <t>Bath BA1 1SS, Reino Unido</t>
+  </si>
+  <si>
+    <t>Bath Spa Train Station</t>
+  </si>
+  <si>
+    <t>Estação de Trem</t>
+  </si>
+  <si>
+    <t>Templo e banhos públicos romanos com água termal, o restaurante Pump Room, museu e visita guiada por áudio para crianças.</t>
+  </si>
+  <si>
+    <t>Abbey Churchyard, Bath BA1 1LZ, Reino Unido</t>
+  </si>
+  <si>
+    <t>Termas romanas de Bath</t>
+  </si>
+  <si>
+    <t>Horario: 07:00–23:00</t>
+  </si>
+  <si>
+    <t>13 Stall St, Bath BA1 1QE, Reino Unido</t>
+  </si>
+  <si>
+    <t>2-4 Dorchester St, Bath BA1 1SS, Reino Unido</t>
+  </si>
+  <si>
+    <t>43 Monmouth St, Bath BA1 2AN, Reino Unido</t>
+  </si>
+  <si>
+    <t>Bath Abbey</t>
+  </si>
+  <si>
+    <t>Horário: 10:00–17:00 -  Igreja do final da época medieval com interior gótico vitoriano de Sir George Gilbert Scott e visitas à torre.</t>
+  </si>
+  <si>
+    <t>Bath BA1 1LT, Reino Unido</t>
+  </si>
+  <si>
+    <t>nobleness.png</t>
+  </si>
+  <si>
+    <t>The Jane Austen Centre</t>
+  </si>
+  <si>
+    <t>Horário: 09:45–18:00 - Pequeno museu que narra a vida da famosa escritora Jane Austen, além de um salão de chá do período regencial.</t>
+  </si>
+  <si>
+    <t>40 Gay St, Bath BA1 2NT, Reino Unido</t>
+  </si>
+  <si>
+    <t>Enormes relvados verdejantes junto ao Royal Crescent com vista tranquila para arquitetura histórica.</t>
+  </si>
+  <si>
+    <t>The Royal Crescent, Royal Cres, Bath BA1 2LX, Reino Unido</t>
+  </si>
+  <si>
+    <t>Royal Crescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flapjackery </t>
+  </si>
+  <si>
+    <t>Horario: 10:00–16:00 - Gluten Free Bakery</t>
+  </si>
+  <si>
+    <t>2 New Bond St Pl, Bath BA1 1BH, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dough </t>
+  </si>
+  <si>
+    <t>Pizzaria Gluten Free - Horairo: 12:00–22:00</t>
+  </si>
+  <si>
+    <t>14-16 The Corridor, Bath BA1 5AP, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosarios </t>
+  </si>
+  <si>
+    <t>Rosarios Cafe, 18 Northumberland Pl, Bath BA1 5AR, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 08:00–17:00</t>
+  </si>
+  <si>
+    <t>dia 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -397,31 +563,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +994,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
@@ -844,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -864,7 +1034,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -884,7 +1054,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -904,7 +1074,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
@@ -924,7 +1094,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -944,7 +1114,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -964,7 +1134,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
@@ -984,7 +1154,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
@@ -1004,7 +1174,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
@@ -1024,23 +1194,23 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>51.458988661041197</v>
+        <v>55.954825741826198</v>
       </c>
       <c r="D14">
-        <v>-2.5842701752980801</v>
+        <v>-3.1888626056190601</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1152,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>55.951523787257202</v>
@@ -1175,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>55.947622529351598</v>
@@ -1198,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1209,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>55.948707895333399</v>
@@ -1221,10 +1391,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
         <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,7 +1467,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
@@ -1314,11 +1484,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>55.9465510868135</v>
@@ -1330,18 +1500,18 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C28">
         <v>55.947472616518297</v>
@@ -1353,15 +1523,15 @@
         <v>19</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C29">
         <v>55.946817090147398</v>
@@ -1370,21 +1540,21 @@
         <v>-3.1921809327139399</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
       </c>
       <c r="C30">
         <v>55.947694876427001</v>
@@ -1393,21 +1563,21 @@
         <v>-3.1918085515241401</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
         <v>80</v>
       </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>55.948866252309202</v>
@@ -1416,21 +1586,21 @@
         <v>-3.1931122734453501</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="C32">
         <v>55.949809433784303</v>
@@ -1442,18 +1612,18 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>55.949785395700403</v>
@@ -1465,14 +1635,14 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1488,18 +1658,18 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
         <v>82</v>
       </c>
-      <c r="G34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>55.955621712536299</v>
@@ -1511,18 +1681,18 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C36">
         <v>55.955367742394401</v>
@@ -1534,10 +1704,537 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>55.9548394345669</v>
+      </c>
+      <c r="D37">
+        <v>-3.18889064434648</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38">
+        <v>55.9554437125052</v>
+      </c>
+      <c r="D38">
+        <v>-3.18894854469379</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39">
+        <v>55.955305307443901</v>
+      </c>
+      <c r="D39">
+        <v>-3.1896023616201301</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>55.956249534482197</v>
+      </c>
+      <c r="D40">
+        <v>-3.1878631949404701</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <v>55.952821872550203</v>
+      </c>
+      <c r="D41">
+        <v>-3.1724333267452098</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42">
+        <v>55.951868642264301</v>
+      </c>
+      <c r="D42">
+        <v>-3.17953351823386</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>55.944641915614802</v>
+      </c>
+      <c r="D43">
+        <v>-3.18919837652922</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44">
+        <v>55.945322928987302</v>
+      </c>
+      <c r="D44">
+        <v>-3.1936683179012202</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>55.9511348229437</v>
+      </c>
+      <c r="D45">
+        <v>-3.1985057748964101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <v>55.952507091563398</v>
+      </c>
+      <c r="D46">
+        <v>-3.1933062788342399</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>51.377873574246401</v>
+      </c>
+      <c r="D47">
+        <v>-2.3569246191849902</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>51.381219262850699</v>
+      </c>
+      <c r="D48">
+        <v>-2.3596726367407999</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>51.378349513027899</v>
+      </c>
+      <c r="D49">
+        <v>-2.35885745461928</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>51.380371865705797</v>
+      </c>
+      <c r="D50">
+        <v>-2.3597800334877599</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>51.3811553371985</v>
+      </c>
+      <c r="D51">
+        <v>-2.3626554064638499</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>51.381510244144401</v>
+      </c>
+      <c r="D52">
+        <v>-2.3626339604708102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53">
+        <v>51.381597291127697</v>
+      </c>
+      <c r="D53">
+        <v>-2.3586320632536002</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54">
+        <v>51.3842201727523</v>
+      </c>
+      <c r="D54">
+        <v>-2.3631618941176402</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55">
+        <v>51.3863795211007</v>
+      </c>
+      <c r="D55">
+        <v>-2.36868362870409</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56">
+        <v>51.3829893954452</v>
+      </c>
+      <c r="D56" s="13">
+        <v>-2.3602999671198002</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57">
+        <v>51.382185862229299</v>
+      </c>
+      <c r="D57">
+        <v>-2.3598172200479199</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58">
+        <v>51.382574223066598</v>
+      </c>
+      <c r="D58">
+        <v>-2.3595275166531602</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7978E30-55D0-4219-B982-7AEDC99B93EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADCDA1-8884-4C5C-AE19-6E2446399F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
   <si>
     <t>categoria</t>
   </si>
@@ -484,7 +484,13 @@
     <t>Horário: 08:00–17:00</t>
   </si>
   <si>
-    <t>dia 4</t>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>dia 1</t>
+  </si>
+  <si>
+    <t>panda.png</t>
   </si>
 </sst>
 </file>
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>-3.1972559933375502</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>72</v>
@@ -1505,8 +1511,14 @@
       <c r="G27" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1520,13 +1532,19 @@
         <v>-3.1962242940448902</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>10</v>
       </c>
@@ -1655,13 +1673,19 @@
         <v>-3.1917009894855899</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1862,7 +1886,7 @@
         <v>-3.18919837652922</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>115</v>
@@ -1870,6 +1894,12 @@
       <c r="G43" t="s">
         <v>116</v>
       </c>
+      <c r="H43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
@@ -1885,7 +1915,7 @@
         <v>-3.1936683179012202</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
         <v>119</v>
@@ -1963,7 +1993,7 @@
         <v>154</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,7 +2137,7 @@
         <v>154</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2136,7 +2166,7 @@
         <v>154</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2165,7 +2195,7 @@
         <v>154</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADCDA1-8884-4C5C-AE19-6E2446399F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA749AB-28C6-4DA1-A676-EB14DFB2615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="162">
   <si>
     <t>categoria</t>
   </si>
@@ -487,10 +487,25 @@
     <t>Bath</t>
   </si>
   <si>
-    <t>dia 1</t>
-  </si>
-  <si>
     <t>panda.png</t>
+  </si>
+  <si>
+    <t>bolsas.png</t>
+  </si>
+  <si>
+    <t>Primark</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>91 - 93 Princes St, Edinburgh EH2 2ER, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 08:30–21:00</t>
+  </si>
+  <si>
+    <t>armando</t>
   </si>
 </sst>
 </file>
@@ -502,9 +517,9 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +547,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -597,7 +617,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,24 +923,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="245.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
@@ -975,7 +997,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
@@ -999,7 +1021,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -1039,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1099,7 +1121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -1119,7 +1141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -1199,7 +1221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -1489,7 +1511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>-3.1972559933375502</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
         <v>72</v>
@@ -1511,14 +1533,14 @@
       <c r="G27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H27" t="s">
-        <v>155</v>
+      <c r="H27" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1532,19 +1554,19 @@
         <v>-3.1962242940448902</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H28" t="s">
-        <v>155</v>
+      <c r="H28" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="10" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="10" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v>-3.1917009894855899</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
@@ -1681,14 +1703,14 @@
       <c r="G34" t="s">
         <v>82</v>
       </c>
-      <c r="H34" t="s">
-        <v>155</v>
+      <c r="H34" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="10" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="10" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +1871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="10" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1908,7 @@
         <v>-3.18919837652922</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
         <v>115</v>
@@ -1894,14 +1916,14 @@
       <c r="G43" t="s">
         <v>116</v>
       </c>
-      <c r="H43" t="s">
-        <v>155</v>
+      <c r="H43" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +1992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
         <v>127</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="10" t="s">
         <v>10</v>
       </c>
@@ -2019,7 +2041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="10" t="s">
         <v>46</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="10" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="10" t="s">
         <v>46</v>
       </c>
@@ -2088,7 +2110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="10" t="s">
         <v>46</v>
       </c>
@@ -2111,7 +2133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="10" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="10" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="10" t="s">
         <v>15</v>
       </c>
@@ -2221,7 +2243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="10" t="s">
         <v>15</v>
       </c>
@@ -2244,7 +2266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="10" t="s">
         <v>15</v>
       </c>
@@ -2265,6 +2287,29 @@
       </c>
       <c r="G58" s="6" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59">
+        <v>55.952199543633498</v>
+      </c>
+      <c r="D59">
+        <v>-3.1985226576813202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\LarasGuideEdimburgh-main\LarasGuideEdimburgh-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA749AB-28C6-4DA1-A676-EB14DFB2615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003CD500-72BE-48E8-888C-73F06E87F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
   <si>
     <t>categoria</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>armando</t>
+  </si>
+  <si>
+    <t>Dalry Rd, Edinburgh EH11 2EF, Reino Unido</t>
+  </si>
+  <si>
+    <t>Horário: 08:00–22:00</t>
   </si>
 </sst>
 </file>
@@ -923,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2312,6 +2318,29 @@
         <v>160</v>
       </c>
     </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>55.942533277833803</v>
+      </c>
+      <c r="D60">
+        <v>-3.22305196000559</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>categoria</t>
   </si>
@@ -223,6 +223,42 @@
   </si>
   <si>
     <t>Igreja onde está o Papa Francisco; Horário; 07:00–18:30</t>
+  </si>
+  <si>
+    <t>Transporte Aeroporto</t>
+  </si>
+  <si>
+    <t>Sit Bus Shuttle Fiumicino Aeroporto</t>
+  </si>
+  <si>
+    <t>onibus.png</t>
+  </si>
+  <si>
+    <t>Via Leonardo da Vinci, 00054 Fiumicino RM, Itália</t>
+  </si>
+  <si>
+    <t>Onibus para sair do aeroporto. Custo: 7,00 € por pessoa; Horários: 19:00  19:30  20:00  20:30</t>
+  </si>
+  <si>
+    <t>SIT Bus Shuttle Termini</t>
+  </si>
+  <si>
+    <t>Via Marsala, 5, 00185 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Onibus para ir para o aeroporto. Custo: 7,00 € por pessoa; Horários: 8:20  8:45  9:00</t>
+  </si>
+  <si>
+    <t>Atração</t>
+  </si>
+  <si>
+    <t>Fontana de Trevi</t>
+  </si>
+  <si>
+    <t>touristic.png</t>
+  </si>
+  <si>
+    <t>Piazza di Trevi, 00187 Roma RM, Itália</t>
   </si>
 </sst>
 </file>
@@ -988,11 +1024,72 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41.7938533243957</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12.2492724338674</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41.9030422805692</v>
+      </c>
+      <c r="D20" s="2">
+        <v>12.5014721455789</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41.901142676934</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12.4833130879251</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -766,6 +766,12 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41.890488473251</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12.4922045512463</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>categoria</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Piazza di Trevi, 00187 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>Page Clear</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1102,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED90684-35B2-4DFF-9987-B1CBB3BDB9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D5325-E8F2-4ACA-BF6A-2A82118D4D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>categoria</t>
   </si>
@@ -340,15 +340,49 @@
   </si>
   <si>
     <t>V. delle Botteghe Oscure, 1-3, 00186 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Via Sebastiano Veniero, 10 A, 00192 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Supermercato Pam</t>
+  </si>
+  <si>
+    <t>Via Ottaviano, 17, 00192 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>TUDAY CONAD</t>
+  </si>
+  <si>
+    <t>Via Silla, 26/A, 00192 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Alice Pizza Via delle Grazie</t>
+  </si>
+  <si>
+    <t>Via delle Grazie, 7/9, 00193 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Horário: 08:00–18:00</t>
+  </si>
+  <si>
+    <t>Pizza Zizza</t>
+  </si>
+  <si>
+    <t>Via delle Fornaci, 11, 00165 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Horário: 11:00–19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -449,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +511,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1396,30 +1431,140 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3">
+        <v>41.908598593726403</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12.455095233363799</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3">
+        <v>41.907192324058997</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12.4575418148287</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3">
+        <v>41.909331951399402</v>
+      </c>
+      <c r="D33" s="3">
+        <v>12.459602602935799</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="3">
+        <v>41.904892710978203</v>
+      </c>
+      <c r="D34" s="3">
+        <v>12.4578882372737</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="13">
+        <v>41.899980814610601</v>
+      </c>
+      <c r="D35" s="3">
+        <v>12.456734842751599</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/locais.xlsx
+++ b/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D5325-E8F2-4ACA-BF6A-2A82118D4D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90422079-C9C8-48B1-A4C0-430183339094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>categoria</t>
   </si>
@@ -373,6 +373,30 @@
   </si>
   <si>
     <t>Horário: 11:00–19:00</t>
+  </si>
+  <si>
+    <t>Shopping Comercial</t>
+  </si>
+  <si>
+    <t>Rinascente Roma</t>
+  </si>
+  <si>
+    <t>bolsas.png</t>
+  </si>
+  <si>
+    <t>Via del Tritone, 61, 00187 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Horário: 10:00–21:30</t>
+  </si>
+  <si>
+    <t>Galleria Alberto Sordi</t>
+  </si>
+  <si>
+    <t>P.za Colonna, 00187 Roma RM, Itália</t>
+  </si>
+  <si>
+    <t>Horário: 09:00–20:00</t>
   </si>
 </sst>
 </file>
@@ -381,8 +405,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -510,8 +534,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J939"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1546,15 +1570,59 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41.904534018097301</v>
+      </c>
+      <c r="D36" s="3">
+        <v>12.4846873410065</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="3">
+        <v>41.903640774176502</v>
+      </c>
+      <c r="D37" s="3">
+        <v>12.4815967890303</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
